--- a/state-code-gen/m1/Flow/0100_Main.xlsx
+++ b/state-code-gen/m1/Flow/0100_Main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
@@ -286,14 +286,219 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>SELECT文生成 ※VBA時のみ</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>statelist_create</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>call select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_create</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>preprocess</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>preprocess-cmt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事前処理説明</t>
+    <rPh sb="0" eb="2">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事前処理</t>
+    <rPh sb="0" eb="2">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事前処理</t>
+    <rPh sb="0" eb="2">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all preprocess</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enum_create</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>funcs_create</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>out_create</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:output=0110_MainFlow_created.bas.txt
+:lang=vba
+::
+'
+Sub MainFlow_Select(func As String, bFirst As Boolean)
+    Select Case func
+        $contents3$
+    End Select
+End Sub
+'
+$contents2$
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">
 ' [[state-cmt]]
 Sub [[state]](bFirst As Boolean)
     If bFirst = True Then
             SetNextState("[[nextstate]]")
-            &lt;&lt;&lt;?template
-            ' [[template-cmt]]
-            [[template]]
+            &lt;&lt;&lt;?preprocess
+            ' [[preprocess-cmt]]
+            [[preprocess]]
             &gt;&gt;&gt;
             &lt;&lt;&lt;?statelist
             ' [[statelist-cmt]]
@@ -319,217 +524,12 @@
 End Sub</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>SELECT文生成 ※VBA時のみ</t>
-    <rPh sb="6" eb="7">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">all </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>statelist_create</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>call select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_create</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>preprocess</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>preprocess-cmt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>事前処理説明</t>
-    <rPh sb="0" eb="2">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>事前処理</t>
-    <rPh sb="0" eb="2">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>事前処理</t>
-    <rPh sb="0" eb="2">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>all preprocess</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">all </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enum_create</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">all </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>funcs_create</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">all </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>out_create</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">:output=0110_MainFlow_created.bas.txt
-:lang=vba
-::
-'
-Sub MainFlow_Select(func As String, bFirst As Boolean)
-    Select Case func
-        $contents3$
-    End Select
-End Sub
-'
-$contents2$
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +542,13 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -579,11 +586,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -592,6 +596,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -881,226 +889,226 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="15.625" style="5"/>
+    <col min="1" max="16384" width="15.625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="165.75" customHeight="1"/>
     <row r="2" spans="2:10" ht="37.5">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="37.5">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="37.5">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="37.5">
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="37.5">
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="5" t="s">
+    </row>
+    <row r="10" spans="2:10" ht="37.5">
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="37.5">
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5" t="s">
+    <row r="13" spans="2:10">
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="37.5">
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="5" t="s">
+    <row r="16" spans="2:10" ht="37.5">
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="37.5">
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="5" t="s">
+    <row r="19" spans="2:9">
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="5" t="s">
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1115,19 +1123,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="89.25" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="89.25" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="409.5">
-      <c r="A1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1141,13 +1149,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="1" t="s">
-        <v>54</v>
+      <c r="A1" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/state-code-gen/m1/Flow/0100_Main.xlsx
+++ b/state-code-gen/m1/Flow/0100_Main.xlsx
@@ -35,25 +35,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>statelist</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>statelist-cmt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステートリスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステートリスト説明</t>
-    <rPh sb="7" eb="9">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>S_START</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -72,13 +53,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステートリスト作成</t>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>S_PREPARE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -296,32 +270,6 @@
     <rPh sb="14" eb="15">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">all </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>statelist_create</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -491,6 +439,63 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all chartread_prepare</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャートリード処理</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャートリード説明</t>
+    <rPh sb="7" eb="9">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chartread-cmt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャートリード準備</t>
+    <rPh sb="7" eb="9">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hartread</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">
 ' [[state-cmt]]
 Sub [[state]](bFirst As Boolean)
@@ -500,9 +505,9 @@
             ' [[preprocess-cmt]]
             [[preprocess]]
             &gt;&gt;&gt;
-            &lt;&lt;&lt;?statelist
-            ' [[statelist-cmt]]
-            [[statelist]]
+            &lt;&lt;&lt;?chartread
+            ' [[chartread-cmt]]
+            [[chartread]]
             &gt;&gt;&gt;
             &lt;&lt;&lt;?enum
             ' [[enum-cmt]]
@@ -586,20 +591,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -883,233 +891,233 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="15.625" style="4"/>
+    <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="165.75" customHeight="1"/>
     <row r="2" spans="2:10" ht="37.5">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="37.5">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="37.5">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="56.25">
+      <c r="B9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="37.5">
+      <c r="B10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="37.5">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="37.5">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="37.5">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="37.5">
-      <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="37.5">
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="37.5">
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="4" t="s">
+      <c r="I22" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1127,15 +1135,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="89.25" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="89.25" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="409.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1153,12 +1161,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="5" t="s">
-        <v>53</v>
+      <c r="A1" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/state-code-gen/m1/Flow/0100_Main.xlsx
+++ b/state-code-gen/m1/Flow/0100_Main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,6 @@
             &gt;&gt;&gt;
     End If
 End Sub</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -600,14 +599,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -891,7 +890,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1011,24 +1010,24 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="56.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="37.5">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1131,19 +1130,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="89.25" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="89.25" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="409.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
